--- a/biology/Mycologie/British_Mycological_Society/British_Mycological_Society.xlsx
+++ b/biology/Mycologie/British_Mycological_Society/British_Mycological_Society.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société britannique de mycologie (British Mycological Society) est une société savante fondée en 1896.
 Ses origines sont à rechercher du côté de deux sociétés locales, le Woolhope Field Naturalists’ Club d’Hereford et le Yorkshire Naturalists’ Union. C’est le conservateur du club d’Hereford, le Dr H.G. Bull, qui, en 1867, incite ses membres à commencer à s’intéresser particulièrement aux champignons. À la mort de Bull, les activités du club commencent à diminuer lorsque l’Union du Yorkshire prend le relais et fonde un comité mycologique en 1892. Celui-ci attire de nombreux mycologue comme Mordecai Cubitt Cooke (1825-1914), Carleton Rea (1861-1946), George Edward Massee (1850-1917), Charles Bagge Plowright (1849-1910) et d’autres.
@@ -516,7 +528,9 @@
           <t>Liste des présidents de la Société</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1896-1898 : George Edward Massee (1850-1917)
 1899 : Charles Bagge Plowright (1849-1910)
@@ -583,7 +597,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">John Webster (1997). Presidential Address 1996 : The British Mycological Society, 1896-1996, Mycological Research, 101 (10) : 1153-1178.
  Portail de l’histoire de la zoologie et de la botanique   Portail de la mycologie                    </t>
